--- a/DRL_Automated_Trading/results14/MTX.DE.xlsx
+++ b/DRL_Automated_Trading/results14/MTX.DE.xlsx
@@ -940,7 +940,7 @@
         <v>44125</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
         <v>1040661.869770865</v>
@@ -3340,7 +3340,7 @@
         <v>44236</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>175.5452848564119</v>
@@ -5068,25 +5068,25 @@
         <v>44314</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>157.0784234867586</v>
+        <v>11135.88763859296</v>
       </c>
       <c r="E145" t="n">
-        <v>5397</v>
+        <v>5343</v>
       </c>
       <c r="F145" t="n">
-        <v>1092779.71195315</v>
+        <v>1092826.221333051</v>
       </c>
       <c r="G145" t="n">
         <v>202.4499969482422</v>
       </c>
       <c r="H145" t="n">
-        <v>46.50937990112305</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1082562.072995432</v>
+        <v>1071583.263780325</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>157.0784234867586</v>
+        <v>11135.88763859296</v>
       </c>
       <c r="E146" t="n">
-        <v>5397</v>
+        <v>5343</v>
       </c>
       <c r="F146" t="n">
-        <v>1094128.96195315</v>
+        <v>1094161.971333051</v>
       </c>
       <c r="G146" t="n">
         <v>202.6999969482422</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1082562.072995432</v>
+        <v>1071583.263780325</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>157.0784234867586</v>
+        <v>11135.88763859296</v>
       </c>
       <c r="E147" t="n">
-        <v>5397</v>
+        <v>5343</v>
       </c>
       <c r="F147" t="n">
-        <v>1114097.886658655</v>
+        <v>1113931.095791364</v>
       </c>
       <c r="G147" t="n">
         <v>206.4000015258789</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1082562.072995432</v>
+        <v>1071583.263780325</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>157.0784234867586</v>
+        <v>148.5730791996492</v>
       </c>
       <c r="E148" t="n">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="F148" t="n">
-        <v>1135685.886658655</v>
+        <v>1135256.581311316</v>
       </c>
       <c r="G148" t="n">
         <v>210.4000015258789</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>46.51448004760743</v>
       </c>
       <c r="I148" t="n">
-        <v>1082562.072995432</v>
+        <v>1082570.578339719</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>157.0784234867586</v>
+        <v>148.5730791996492</v>
       </c>
       <c r="E149" t="n">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="F149" t="n">
-        <v>1109510.444893824</v>
+        <v>1109090.839543433</v>
       </c>
       <c r="G149" t="n">
         <v>205.5500030517578</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1082562.072995432</v>
+        <v>1082570.578339719</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>1095829.846323714</v>
+        <v>1095415.284756377</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1095829.846323714</v>
+        <v>1095415.284756377</v>
       </c>
       <c r="G150" t="n">
         <v>203.1500015258789</v>
       </c>
       <c r="H150" t="n">
-        <v>727.7903349411012</v>
+        <v>727.54655493927</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>13110.69490479562</v>
+        <v>12696.1333374586</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>11274.59532371413</v>
+        <v>11270.27975637711</v>
       </c>
       <c r="E151" t="n">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="F151" t="n">
-        <v>1095109.595323714</v>
+        <v>1094695.279756377</v>
       </c>
       <c r="G151" t="n">
         <v>205</v>
       </c>
       <c r="H151" t="n">
-        <v>720.251</v>
+        <v>720.0050000000001</v>
       </c>
       <c r="I151" t="n">
-        <v>1084555.251</v>
+        <v>1084145.005</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>11274.59532371413</v>
+        <v>11270.27975637711</v>
       </c>
       <c r="E152" t="n">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="F152" t="n">
-        <v>1122601.979189071</v>
+        <v>1122177.263627837</v>
       </c>
       <c r="G152" t="n">
         <v>210.1999969482422</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1084555.251</v>
+        <v>1084145.005</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="G153" t="n">
         <v>212</v>
       </c>
       <c r="H153" t="n">
-        <v>742.4564000000001</v>
+        <v>742.2020000000001</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>35546.29260000004</v>
+        <v>35532.79300000006</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="G154" t="n">
         <v>207.5</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="G155" t="n">
         <v>208.2999954223633</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="G156" t="n">
         <v>204.5500030517578</v>
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1131376.138923714</v>
+        <v>1130948.077756377</v>
       </c>
       <c r="G157" t="n">
         <v>211.25</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>11595.1732190816</v>
+        <v>11591.56656869101</v>
       </c>
       <c r="E158" t="n">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="F158" t="n">
-        <v>1130634.765168545</v>
+        <v>1130206.958521206</v>
       </c>
       <c r="G158" t="n">
         <v>212.0999984741211</v>
       </c>
       <c r="H158" t="n">
-        <v>741.3737551696778</v>
+        <v>741.1192351715088</v>
       </c>
       <c r="I158" t="n">
-        <v>1119780.965704632</v>
+        <v>1119356.511187686</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="G159" t="n">
         <v>210.0500030517578</v>
       </c>
       <c r="H159" t="n">
-        <v>734.8842896606446</v>
+        <v>734.6322296569824</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-12292.03389321896</v>
+        <v>-12287.42732237233</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="G160" t="n">
         <v>204.5999984741211</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1119084.105030495</v>
+        <v>1118660.650434005</v>
       </c>
       <c r="G161" t="n">
         <v>204.1500015258789</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>11399.59301075644</v>
+        <v>11387.58513121248</v>
       </c>
       <c r="E162" t="n">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="F162" t="n">
-        <v>1118349.984795424</v>
+        <v>1117926.776918932</v>
       </c>
       <c r="G162" t="n">
         <v>205.5999984741211</v>
       </c>
       <c r="H162" t="n">
-        <v>734.1202350708008</v>
+        <v>733.8735150726319</v>
       </c>
       <c r="I162" t="n">
-        <v>1107684.512019739</v>
+        <v>1107273.065302792</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="G163" t="n">
         <v>209.5999984741211</v>
       </c>
       <c r="H163" t="n">
-        <v>747.0418350708009</v>
+        <v>746.790315072632</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>20054.83792985836</v>
+        <v>20047.33616985474</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="G164" t="n">
         <v>206.8499984741211</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="G165" t="n">
         <v>209.75</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1139138.942960354</v>
+        <v>1138707.98660386</v>
       </c>
       <c r="G166" t="n">
         <v>213.1500015258789</v>
@@ -5775,22 +5775,22 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>11560.53545986987</v>
+        <v>11555.13428642946</v>
       </c>
       <c r="E167" t="n">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="F167" t="n">
-        <v>1138392.893545502</v>
+        <v>1137962.19236901</v>
       </c>
       <c r="G167" t="n">
         <v>212.6500015258789</v>
       </c>
       <c r="H167" t="n">
-        <v>746.0494148513794</v>
+        <v>745.7942348495484</v>
       </c>
       <c r="I167" t="n">
-        <v>1127578.407500484</v>
+        <v>1127152.85231743</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>11560.53545986987</v>
+        <v>11555.13428642946</v>
       </c>
       <c r="E168" t="n">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="F168" t="n">
-        <v>1142632.069288605</v>
+        <v>1142199.768121268</v>
       </c>
       <c r="G168" t="n">
         <v>213.4499969482422</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1127578.407500484</v>
+        <v>1127152.85231743</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -5839,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>169.1289126301799</v>
+        <v>163.7277391897788</v>
       </c>
       <c r="E169" t="n">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="F169" t="n">
-        <v>1145764.704413119</v>
+        <v>1145331.203248833</v>
       </c>
       <c r="G169" t="n">
         <v>214.0499954223633</v>
@@ -5854,7 +5854,7 @@
         <v>46.75678985443115</v>
       </c>
       <c r="I169" t="n">
-        <v>1138969.814047724</v>
+        <v>1138544.25886467</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5871,25 +5871,25 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="G170" t="n">
         <v>211.3999938964844</v>
       </c>
       <c r="H170" t="n">
-        <v>748.7976604003907</v>
+        <v>748.5439804077148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-8305.84437413956</v>
+        <v>-8302.835498886183</v>
       </c>
     </row>
     <row r="171">
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="G171" t="n">
         <v>208.75</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="G172" t="n">
         <v>208.5</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1130833.098586214</v>
+        <v>1130405.151104973</v>
       </c>
       <c r="G173" t="n">
         <v>209.1000061035156</v>
@@ -5999,22 +5999,22 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>11491.39640372523</v>
+        <v>11481.39953943079</v>
       </c>
       <c r="E174" t="n">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="F174" t="n">
-        <v>1130091.988231118</v>
+        <v>1129664.291369875</v>
       </c>
       <c r="G174" t="n">
         <v>208.8499984741211</v>
       </c>
       <c r="H174" t="n">
-        <v>741.1103550964356</v>
+        <v>740.8597350982667</v>
       </c>
       <c r="I174" t="n">
-        <v>1119341.702182489</v>
+        <v>1118923.751565543</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="G175" t="n">
         <v>209.5500030517578</v>
       </c>
       <c r="H175" t="n">
-        <v>743.359889807129</v>
+        <v>743.1084298034668</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2264.754272918683</v>
+        <v>2263.856343765277</v>
       </c>
     </row>
     <row r="176">
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="G176" t="n">
         <v>208.5499954223633</v>
@@ -6092,16 +6092,16 @@
         <v>44361</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="G177" t="n">
         <v>209.9000015258789</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1133097.852859133</v>
+        <v>1132669.007448739</v>
       </c>
       <c r="G178" t="n">
         <v>212.0999984741211</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>11621.47839886681</v>
+        <v>11622.29062236538</v>
       </c>
       <c r="E179" t="n">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="F179" t="n">
-        <v>1132355.462468691</v>
+        <v>1131926.874698293</v>
       </c>
       <c r="G179" t="n">
         <v>214.6999969482422</v>
       </c>
       <c r="H179" t="n">
-        <v>742.3903904418946</v>
+        <v>742.1327504455567</v>
       </c>
       <c r="I179" t="n">
-        <v>1121476.374460266</v>
+        <v>1121046.716826373</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>1152741.403398867</v>
+        <v>1152304.978122365</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1152741.403398867</v>
+        <v>1152304.978122365</v>
       </c>
       <c r="G180" t="n">
         <v>218.75</v>
       </c>
       <c r="H180" t="n">
-        <v>755.075</v>
+        <v>754.8125</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>19643.55053973384</v>
+        <v>19635.97067362675</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>1152741.403398867</v>
+        <v>1152304.978122365</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1152741.403398867</v>
+        <v>1152304.978122365</v>
       </c>
       <c r="G181" t="n">
         <v>221.7999954223633</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>11763.3269992696</v>
+        <v>11762.36283971467</v>
       </c>
       <c r="E182" t="n">
-        <v>5240</v>
+        <v>5238</v>
       </c>
       <c r="F182" t="n">
-        <v>1151987.319003664</v>
+        <v>1151551.154847161</v>
       </c>
       <c r="G182" t="n">
         <v>217.5999984741211</v>
       </c>
       <c r="H182" t="n">
-        <v>754.0843952026369</v>
+        <v>753.8232752044678</v>
       </c>
       <c r="I182" t="n">
-        <v>1140978.076399597</v>
+        <v>1140542.615282651</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>1170871.484562502</v>
+        <v>1170428.086010747</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1170871.484562502</v>
+        <v>1170428.086010747</v>
       </c>
       <c r="G183" t="n">
         <v>221.3500061035156</v>
       </c>
       <c r="H183" t="n">
-        <v>765.8744191894532</v>
+        <v>765.6087991821289</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>18130.08116363524</v>
+        <v>18123.10788838193</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>12016.08831894122</v>
+        <v>12008.65118413298</v>
       </c>
       <c r="E184" t="n">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="F184" t="n">
-        <v>1170106.680207369</v>
+        <v>1169663.543075613</v>
       </c>
       <c r="G184" t="n">
         <v>217.8499984741211</v>
       </c>
       <c r="H184" t="n">
-        <v>764.8043551330567</v>
+        <v>764.5429351348878</v>
       </c>
       <c r="I184" t="n">
-        <v>1158855.396243561</v>
+        <v>1158419.434826614</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G185" t="n">
         <v>216.8000030517578</v>
       </c>
       <c r="H185" t="n">
-        <v>761.4552897338867</v>
+        <v>761.1951297302247</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-7108.035310150124</v>
+        <v>-7105.413739303593</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G186" t="n">
         <v>214.8500061035156</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G187" t="n">
         <v>212.7999954223633</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G188" t="n">
         <v>210.0499954223633</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G189" t="n">
         <v>206.8999938964844</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G190" t="n">
         <v>210.0999984741211</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G191" t="n">
         <v>209.75</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G192" t="n">
         <v>208.8499984741211</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G193" t="n">
         <v>210.1500015258789</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1163763.449252352</v>
+        <v>1163322.672271444</v>
       </c>
       <c r="G194" t="n">
         <v>209.25</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>11874.61375482076</v>
+        <v>11843.88265696623</v>
       </c>
       <c r="E195" t="n">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="F195" t="n">
-        <v>1163002.822327208</v>
+        <v>1162562.291226302</v>
       </c>
       <c r="G195" t="n">
         <v>204.9000015258789</v>
       </c>
       <c r="H195" t="n">
-        <v>760.6269251434327</v>
+        <v>760.3810451416016</v>
       </c>
       <c r="I195" t="n">
-        <v>1151888.835497531</v>
+        <v>1151478.789614477</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>11874.61375482076</v>
+        <v>11843.88265696623</v>
       </c>
       <c r="E196" t="n">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="F196" t="n">
-        <v>1196991.696610045</v>
+        <v>1196539.065518294</v>
       </c>
       <c r="G196" t="n">
         <v>210.9499969482422</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1151888.835497531</v>
+        <v>1151478.789614477</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>11874.61375482076</v>
+        <v>11843.88265696623</v>
       </c>
       <c r="E197" t="n">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="F197" t="n">
-        <v>1198115.322327208</v>
+        <v>1197662.291226302</v>
       </c>
       <c r="G197" t="n">
         <v>211.1500015258789</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1151888.835497531</v>
+        <v>1151478.789614477</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>11874.61375482076</v>
+        <v>11843.88265696623</v>
       </c>
       <c r="E198" t="n">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="F198" t="n">
-        <v>1178733.196610045</v>
+        <v>1178287.065518294</v>
       </c>
       <c r="G198" t="n">
         <v>207.6999969482422</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1151888.835497531</v>
+        <v>1151478.789614477</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6799,25 +6799,25 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="G199" t="n">
         <v>205.1500015258789</v>
       </c>
       <c r="H199" t="n">
-        <v>761.4696251434326</v>
+        <v>761.2234451416016</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>-117.5965502867475</v>
+        <v>-117.6044902831782</v>
       </c>
     </row>
     <row r="200">
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="G200" t="n">
         <v>204.0999984741211</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1163645.852702065</v>
+        <v>1163205.067781161</v>
       </c>
       <c r="G201" t="n">
         <v>205.9499969482422</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>11785.60901821962</v>
+        <v>11937.00419689545</v>
       </c>
       <c r="E202" t="n">
-        <v>5835</v>
+        <v>5832</v>
       </c>
       <c r="F202" t="n">
-        <v>1162885.242921723</v>
+        <v>1162444.813095821</v>
       </c>
       <c r="G202" t="n">
         <v>197.2750015258789</v>
       </c>
       <c r="H202" t="n">
-        <v>760.6097803421021</v>
+        <v>760.2546853393555</v>
       </c>
       <c r="I202" t="n">
-        <v>1151860.243683846</v>
+        <v>1151268.063584265</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>213.0932678961322</v>
+        <v>169.0212304647843</v>
       </c>
       <c r="E203" t="n">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="F203" t="n">
-        <v>1151606.029242017</v>
+        <v>1151171.257192379</v>
       </c>
       <c r="G203" t="n">
         <v>195.3500061035156</v>
       </c>
       <c r="H203" t="n">
-        <v>46.86539021606445</v>
+        <v>46.98260021972656</v>
       </c>
       <c r="I203" t="n">
-        <v>1163432.759434169</v>
+        <v>1163036.046550696</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>213.0932678961322</v>
+        <v>169.0212304647843</v>
       </c>
       <c r="E204" t="n">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="F204" t="n">
-        <v>1188443.484274366</v>
+        <v>1187996.212239986</v>
       </c>
       <c r="G204" t="n">
         <v>201.5999984741211</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1163432.759434169</v>
+        <v>1163036.046550696</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G205" t="n">
         <v>206.3000030517578</v>
       </c>
       <c r="H205" t="n">
-        <v>799.5093307922364</v>
+        <v>799.2617707885743</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>51699.94922209927</v>
+        <v>51684.30965947267</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G206" t="n">
         <v>209.0999984741211</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G207" t="n">
         <v>207.8499984741211</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G208" t="n">
         <v>208.6500015258789</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G209" t="n">
         <v>212</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G210" t="n">
         <v>215.1500015258789</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1215345.801924164</v>
+        <v>1214889.377440633</v>
       </c>
       <c r="G211" t="n">
         <v>209.6500015258789</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>12442.08442416441</v>
+        <v>12410.91494063325</v>
       </c>
       <c r="E212" t="n">
-        <v>5657</v>
+        <v>5655</v>
       </c>
       <c r="F212" t="n">
-        <v>1214554.584424164</v>
+        <v>1214098.414940633</v>
       </c>
       <c r="G212" t="n">
         <v>212.5</v>
       </c>
       <c r="H212" t="n">
-        <v>791.2175</v>
+        <v>790.9625</v>
       </c>
       <c r="I212" t="n">
-        <v>1202903.7175</v>
+        <v>1202478.4625</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,13 +7247,13 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>284.4684498266378</v>
+        <v>253.2989662954841</v>
       </c>
       <c r="E213" t="n">
-        <v>5715</v>
+        <v>5713</v>
       </c>
       <c r="F213" t="n">
-        <v>1193576.442288633</v>
+        <v>1193127.672814257</v>
       </c>
       <c r="G213" t="n">
         <v>208.7999954223633</v>
@@ -7262,7 +7262,7 @@
         <v>47.21623984069824</v>
       </c>
       <c r="I213" t="n">
-        <v>1215061.333474338</v>
+        <v>1214636.078474338</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="G214" t="n">
         <v>206.0500030517578</v>
       </c>
       <c r="H214" t="n">
-        <v>776.4954604644777</v>
+        <v>776.2482004608154</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>-38262.06149400631</v>
+        <v>-38248.65924010612</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="G215" t="n">
         <v>206.9000015258789</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1177083.740430158</v>
+        <v>1176640.718200527</v>
       </c>
       <c r="G216" t="n">
         <v>210.6500015258789</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>12003.17029720216</v>
+        <v>11976.29760146402</v>
       </c>
       <c r="E217" t="n">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="F217" t="n">
-        <v>1176315.20321041</v>
+        <v>1175872.430520775</v>
       </c>
       <c r="G217" t="n">
         <v>207.9499969482422</v>
       </c>
       <c r="H217" t="n">
-        <v>768.5372197479248</v>
+        <v>768.2876797515869</v>
       </c>
       <c r="I217" t="n">
-        <v>1165080.570132956</v>
+        <v>1164664.420599063</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>12003.17029720216</v>
+        <v>11976.29760146402</v>
       </c>
       <c r="E218" t="n">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="F218" t="n">
-        <v>1156998.670297202</v>
+        <v>1156562.797601464</v>
       </c>
       <c r="G218" t="n">
         <v>204.5</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1165080.570132956</v>
+        <v>1164664.420599063</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G219" t="n">
         <v>207.4000015258789</v>
       </c>
       <c r="H219" t="n">
-        <v>766.6895651260377</v>
+        <v>766.4406851242065</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>-4614.651154685998</v>
+        <v>-4613.052743843058</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G220" t="n">
         <v>206.25</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G221" t="n">
         <v>206.5</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G222" t="n">
         <v>203.8500061035156</v>
@@ -7567,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G223" t="n">
         <v>201.75</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G224" t="n">
         <v>201.5</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1172469.089275472</v>
+        <v>1172027.665456684</v>
       </c>
       <c r="G225" t="n">
         <v>199</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>12011.56724802154</v>
+        <v>11963.02901312633</v>
       </c>
       <c r="E226" t="n">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="F226" t="n">
-        <v>1171703.324221288</v>
+        <v>1171262.135992497</v>
       </c>
       <c r="G226" t="n">
         <v>196.3249969482422</v>
       </c>
       <c r="H226" t="n">
-        <v>765.76505418396</v>
+        <v>765.5294641876221</v>
       </c>
       <c r="I226" t="n">
-        <v>1160457.522027451</v>
+        <v>1160064.636443558</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,13 +7695,13 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>132.51777319854</v>
+        <v>83.97953830333562</v>
       </c>
       <c r="E227" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F227" t="n">
-        <v>1176824.945087957</v>
+        <v>1176382.006843906</v>
       </c>
       <c r="G227" t="n">
         <v>197.2000045776367</v>
@@ -7710,7 +7710,7 @@
         <v>47.04920016479493</v>
       </c>
       <c r="I227" t="n">
-        <v>1172336.571502274</v>
+        <v>1171943.685918381</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>132.51777319854</v>
+        <v>83.97953830333562</v>
       </c>
       <c r="E228" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F228" t="n">
-        <v>1179957.583668279</v>
+        <v>1179513.595436436</v>
       </c>
       <c r="G228" t="n">
         <v>197.7249984741211</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1172336.571502274</v>
+        <v>1171943.685918381</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>132.51777319854</v>
+        <v>83.97953830333562</v>
       </c>
       <c r="E229" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F229" t="n">
-        <v>1186521.27456336</v>
+        <v>1186075.086334568</v>
       </c>
       <c r="G229" t="n">
         <v>198.8249969482422</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1172336.571502274</v>
+        <v>1171943.685918381</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>132.51777319854</v>
+        <v>83.97953830333562</v>
       </c>
       <c r="E230" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F230" t="n">
-        <v>1173692.21545844</v>
+        <v>1173250.3272327</v>
       </c>
       <c r="G230" t="n">
         <v>196.6749954223633</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1172336.571502274</v>
+        <v>1171943.685918381</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>132.51777319854</v>
+        <v>83.97953830333562</v>
       </c>
       <c r="E231" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F231" t="n">
-        <v>1174438.135983037</v>
+        <v>1173995.997742039</v>
       </c>
       <c r="G231" t="n">
         <v>196.8000030517578</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1172336.571502274</v>
+        <v>1171943.685918381</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1174856.268373198</v>
+        <v>1174413.966538303</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1174856.268373198</v>
+        <v>1174413.966538303</v>
       </c>
       <c r="G232" t="n">
         <v>197</v>
       </c>
       <c r="H232" t="n">
-        <v>775.2494</v>
+        <v>775.013</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>2387.179097726243</v>
+        <v>2386.301081619225</v>
       </c>
     </row>
     <row r="233">
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>12015.82442319834</v>
+        <v>11963.2562883033</v>
       </c>
       <c r="E233" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F233" t="n">
-        <v>1174089.074423198</v>
+        <v>1173647.006288303</v>
       </c>
       <c r="G233" t="n">
         <v>194.75</v>
       </c>
       <c r="H233" t="n">
-        <v>767.1939500000001</v>
+        <v>766.9602500000001</v>
       </c>
       <c r="I233" t="n">
-        <v>1162840.44395</v>
+        <v>1162450.71025</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G234" t="n">
         <v>195.9250030517578</v>
       </c>
       <c r="H234" t="n">
-        <v>771.4006959259033</v>
+        <v>771.1655859222412</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>5472.64856391307</v>
+        <v>5470.767367813038</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G235" t="n">
         <v>195.5250015258789</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G236" t="n">
         <v>196.0750045776367</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G237" t="n">
         <v>194.9749984741211</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G238" t="n">
         <v>193.125</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G239" t="n">
         <v>190.6750030517578</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G240" t="n">
         <v>189.8250045776367</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>1180328.916937111</v>
+        <v>1179884.733906116</v>
       </c>
       <c r="G241" t="n">
         <v>189.4749984741211</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>12089.86076211141</v>
+        <v>12024.15468111634</v>
       </c>
       <c r="E242" t="n">
-        <v>6173</v>
+        <v>6171</v>
       </c>
       <c r="F242" t="n">
-        <v>1179558.485762111</v>
+        <v>1179114.529681116</v>
       </c>
       <c r="G242" t="n">
         <v>189.125</v>
       </c>
       <c r="H242" t="n">
-        <v>770.4311750000001</v>
+        <v>770.204225</v>
       </c>
       <c r="I242" t="n">
-        <v>1168239.056175</v>
+        <v>1167860.579225</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,25 +8207,25 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="G243" t="n">
         <v>188.6500015258789</v>
       </c>
       <c r="H243" t="n">
-        <v>768.6718756515503</v>
+        <v>768.4454956497193</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-4471.268631401006</v>
+        <v>-4469.86530445097</v>
       </c>
     </row>
     <row r="244">
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="G244" t="n">
         <v>188.0499954223633</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="G245" t="n">
         <v>189.3000030517578</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="G246" t="n">
         <v>189.7749938964844</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1175857.64830571</v>
+        <v>1175414.868601665</v>
       </c>
       <c r="G247" t="n">
         <v>189.5999984741211</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>11905.02842472133</v>
+        <v>12052.55269525667</v>
       </c>
       <c r="E248" t="n">
-        <v>5915</v>
+        <v>5912</v>
       </c>
       <c r="F248" t="n">
-        <v>1175089.787450295</v>
+        <v>1174647.361716253</v>
       </c>
       <c r="G248" t="n">
         <v>196.6500015258789</v>
       </c>
       <c r="H248" t="n">
-        <v>767.8608554153443</v>
+        <v>767.5068854125976</v>
       </c>
       <c r="I248" t="n">
-        <v>1163952.619880989</v>
+        <v>1163362.315906409</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="G249" t="n">
         <v>198.6749954223633</v>
       </c>
       <c r="H249" t="n">
-        <v>775.0475587539673</v>
+        <v>774.689943762207</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>10434.93048353586</v>
+        <v>10429.56708684075</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="G250" t="n">
         <v>199.8249969482422</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1186292.578789246</v>
+        <v>1185844.435688506</v>
       </c>
       <c r="G251" t="n">
         <v>199.75</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>12088.28828647222</v>
+        <v>12045.78841962489</v>
       </c>
       <c r="E252" t="n">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="F252" t="n">
-        <v>1185518.570619846</v>
+        <v>1185070.670759102</v>
       </c>
       <c r="G252" t="n">
         <v>202.6999969482422</v>
       </c>
       <c r="H252" t="n">
-        <v>774.0081694000245</v>
+        <v>773.7649294036866</v>
       </c>
       <c r="I252" t="n">
-        <v>1174204.290502774</v>
+        <v>1173798.647268881</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1167821.923629485</v>
+        <v>1167380.113489588</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1167821.923629485</v>
+        <v>1167380.113489588</v>
       </c>
       <c r="G253" t="n">
         <v>199.7750015258789</v>
       </c>
       <c r="H253" t="n">
-        <v>763.8484902999878</v>
+        <v>763.6087602981568</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-18470.65515976097</v>
+        <v>-18464.32219891832</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1167821.923629485</v>
+        <v>1167380.113489588</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1167821.923629485</v>
+        <v>1167380.113489588</v>
       </c>
       <c r="G254" t="n">
         <v>197.9000015258789</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>11906.86459652632</v>
+        <v>11860.89182273598</v>
       </c>
       <c r="E255" t="n">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="F255" t="n">
-        <v>1167058.882418792</v>
+        <v>1166617.309638898</v>
       </c>
       <c r="G255" t="n">
         <v>197.8000030517578</v>
       </c>
       <c r="H255" t="n">
-        <v>763.0412106933595</v>
+        <v>762.8038506896972</v>
       </c>
       <c r="I255" t="n">
-        <v>1155915.059032959</v>
+        <v>1155519.221666852</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
